--- a/back-end/excelSheets/excelFormats/faculty.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>facultyId</t>
   </si>
@@ -340,6 +340,66 @@
   </si>
   <si>
     <t>cse</t>
+  </si>
+  <si>
+    <t>24/10/1987</t>
+  </si>
+  <si>
+    <t>24/10/1988</t>
+  </si>
+  <si>
+    <t>24/10/1989</t>
+  </si>
+  <si>
+    <t>24/10/1990</t>
+  </si>
+  <si>
+    <t>24/10/1991</t>
+  </si>
+  <si>
+    <t>24/10/1992</t>
+  </si>
+  <si>
+    <t>24/10/1993</t>
+  </si>
+  <si>
+    <t>24/10/1994</t>
+  </si>
+  <si>
+    <t>24/10/1995</t>
+  </si>
+  <si>
+    <t>24/10/1996</t>
+  </si>
+  <si>
+    <t>12/09/1986</t>
+  </si>
+  <si>
+    <t>12/09/1987</t>
+  </si>
+  <si>
+    <t>12/09/1988</t>
+  </si>
+  <si>
+    <t>12/09/1989</t>
+  </si>
+  <si>
+    <t>12/09/1990</t>
+  </si>
+  <si>
+    <t>12/09/1991</t>
+  </si>
+  <si>
+    <t>12/09/1992</t>
+  </si>
+  <si>
+    <t>12/09/1993</t>
+  </si>
+  <si>
+    <t>12/09/1994</t>
+  </si>
+  <si>
+    <t>12/09/1995</t>
   </si>
 </sst>
 </file>
@@ -375,9 +435,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,9 +733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +748,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -695,9 +756,10 @@
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +781,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -744,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -766,8 +828,8 @@
       <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1">
-        <v>32074</v>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="I2" t="s">
         <v>86</v>
@@ -790,8 +852,9 @@
       <c r="O2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -813,8 +876,8 @@
       <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1">
-        <v>31667</v>
+      <c r="H3" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>86</v>
@@ -837,8 +900,9 @@
       <c r="O3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -860,8 +924,8 @@
       <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="1">
-        <v>31260</v>
+      <c r="H4" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>86</v>
@@ -885,7 +949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -907,8 +971,8 @@
       <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="1">
-        <v>30853</v>
+      <c r="H5" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="I5" t="s">
         <v>86</v>
@@ -932,7 +996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -954,8 +1018,8 @@
       <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="1">
-        <v>30446</v>
+      <c r="H6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="I6" t="s">
         <v>86</v>
@@ -979,7 +1043,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1001,8 +1065,8 @@
       <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="1">
-        <v>30039</v>
+      <c r="H7" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="I7" t="s">
         <v>86</v>
@@ -1026,7 +1090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1048,8 +1112,8 @@
       <c r="G8" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="1">
-        <v>29632</v>
+      <c r="H8" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="I8" t="s">
         <v>86</v>
@@ -1073,7 +1137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1095,8 +1159,8 @@
       <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="1">
-        <v>29225</v>
+      <c r="H9" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="I9" t="s">
         <v>86</v>
@@ -1120,7 +1184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1142,8 +1206,8 @@
       <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="1">
-        <v>28818</v>
+      <c r="H10" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I10" t="s">
         <v>86</v>
@@ -1167,7 +1231,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1189,8 +1253,8 @@
       <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="1">
-        <v>28411</v>
+      <c r="H11" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>
@@ -1214,7 +1278,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1236,8 +1300,8 @@
       <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="1">
-        <v>28004</v>
+      <c r="H12" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I12" t="s">
         <v>86</v>
@@ -1261,7 +1325,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1283,8 +1347,8 @@
       <c r="G13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="1">
-        <v>27597</v>
+      <c r="H13" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="I13" t="s">
         <v>86</v>
@@ -1308,7 +1372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1330,8 +1394,8 @@
       <c r="G14" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="1">
-        <v>27190</v>
+      <c r="H14" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>
@@ -1355,7 +1419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1377,8 +1441,8 @@
       <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1">
-        <v>26783</v>
+      <c r="H15" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="I15" t="s">
         <v>86</v>
@@ -1402,7 +1466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1424,8 +1488,8 @@
       <c r="G16" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="1">
-        <v>26376</v>
+      <c r="H16" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="I16" t="s">
         <v>86</v>
@@ -1471,8 +1535,8 @@
       <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="1">
-        <v>25969</v>
+      <c r="H17" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I17" t="s">
         <v>86</v>
@@ -1518,8 +1582,8 @@
       <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="1">
-        <v>25562</v>
+      <c r="H18" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>86</v>
@@ -1565,8 +1629,8 @@
       <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="1">
-        <v>25155</v>
+      <c r="H19" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
@@ -1612,8 +1676,8 @@
       <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="1">
-        <v>24748</v>
+      <c r="H20" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="I20" t="s">
         <v>86</v>
@@ -1659,8 +1723,8 @@
       <c r="G21" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="1">
-        <v>24341</v>
+      <c r="H21" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>86</v>
